--- a/biology/Botanique/Rhipsalis_paradoxa/Rhipsalis_paradoxa.xlsx
+++ b/biology/Botanique/Rhipsalis_paradoxa/Rhipsalis_paradoxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhipsalis  paradoxa est le nom d'une espèce de plante épiphyte et succulente, endémique du Brésil, et appartenant à la famille des cactus et du genre Rhipsalis (qui comprend environ 60 espèces et de nombreuses sous-espèces)
-Elle est menacée par la régression, dégradation ou disparition de son habitat (forêt tropicale humide)[2].
+Elle est menacée par la régression, dégradation ou disparition de son habitat (forêt tropicale humide).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre vient d'un mot grec signifiant souple ou jonc tressé / osier tressé, en référence à l'apparence des plantes.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine, aire de répartition, habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette épiphyte est originaire du Brésil, où elle vit dans des forêts subtropicales ou tropicales humides, accrochée ou suspendue aux branches ou poussant dans les creux de vieux arbres.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tiges, crassulentes, sont aplaties, segmentées et se divisant potentiellement après chaque segment, chaque segment a une forme aplatie d'environ 2 cm de large en son centre, avec une distance internœuds de 2,5 à 5 cm de long, qui fait évoquer pour chaque tige un chainage régulier de segments (d'où son nom de  chain cactus ou chain rhipsalis pour les anglophones) [3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges, crassulentes, sont aplaties, segmentées et se divisant potentiellement après chaque segment, chaque segment a une forme aplatie d'environ 2 cm de large en son centre, avec une distance internœuds de 2,5 à 5 cm de long, qui fait évoquer pour chaque tige un chainage régulier de segments (d'où son nom de  chain cactus ou chain rhipsalis pour les anglophones) .
 Les fleurs sont blanches et petites (environ 2 cm de diam.) ; En serre froide, la fleur apparait au début du printemps.
 Les fruits (petits et rouges, très voyants) apparaissent sur les bordures de ces segments, près des nœuds
 La plante a une couleur verte, mate, tirant nettement sur le violet à la lumière (variable selon les conditions de luminosité, température et d'humidité).
@@ -608,7 +626,9 @@
           <t>Usages (médicinaux, ornementaux, alimentaires)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette espèce de cactus dans épines est utilisée en suspension, pour la décoration.</t>
         </is>
@@ -638,7 +658,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Paradoxa Rhipsalis est une plante de demi-ombre qui doit idéalement être éclairée de manière plutôt zénithale. Il lui faut un sol acide, léger et bien drainé (ex : 2 partie de mousse de tourbe 2 pour 1 partie de sable, avec de petits copeaux d'écorce ajouté pour augmenter le drainage et comme source de carbone. En période de croissance, alterner de bons arrosages à des périodes où l'on laisse sécher légèrement le substrat. Ces plantes ont dans la nature de faibles besoins nutritifs. Les engrais équilibrés du commerce doivent donc être dilués à la moitié de la concentration recommandée sur l'étiquette.
 En hiver, une température nocturne de 9/10 °C et un faible arrosage (sans engrais) favorisera la floraison printanière. Quand les boutons floraux apparaissent l'arrosage normal peut reprendre, ainsi que la fertilisation.
@@ -671,7 +693,9 @@
           <t>Statut, menace</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale menace qui pèse sur l'espèce est le recul rapide de la forêt tropicale primaire (destruction et fragmentation des habitats, déforestation..)
 </t>
